--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="31560" yWindow="-4420" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Change Sets" sheetId="2" r:id="rId2"/>
+    <sheet name="Frontend" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Phase 1</t>
   </si>
@@ -104,6 +105,12 @@
   </si>
   <si>
     <t>Dynamic content rendering from EP Engine</t>
+  </si>
+  <si>
+    <t>Setup Info</t>
+  </si>
+  <si>
+    <t>Maven Frontend Goal</t>
   </si>
 </sst>
 </file>
@@ -555,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -753,4 +760,32 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="-4420" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Phase 1</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Maven Frontend Goal</t>
+  </si>
+  <si>
+    <t>Page 1</t>
+  </si>
+  <si>
+    <t>All pages</t>
   </si>
 </sst>
 </file>
@@ -744,15 +750,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -766,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2900" yWindow="1480" windowWidth="22900" windowHeight="14020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Change Sets" sheetId="2" r:id="rId2"/>
+    <sheet name="Backend" sheetId="6" r:id="rId2"/>
     <sheet name="Frontend" sheetId="3" r:id="rId3"/>
+    <sheet name="Endpoints" sheetId="4" r:id="rId4"/>
+    <sheet name="Paths" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="204">
   <si>
     <t>Phase 1</t>
   </si>
@@ -29,9 +31,15 @@
     <t>Set up Infrastructure</t>
   </si>
   <si>
+    <t>Name the project</t>
+  </si>
+  <si>
     <t>Set up Git hub versioning</t>
   </si>
   <si>
+    <t>Set up JIRA project account</t>
+  </si>
+  <si>
     <t>Build Spring boot startup</t>
   </si>
   <si>
@@ -41,12 +49,6 @@
     <t>Start front end design using Angular JS</t>
   </si>
   <si>
-    <t>Name the project</t>
-  </si>
-  <si>
-    <t>Set up JIRA project account</t>
-  </si>
-  <si>
     <t>Identify the services to be reused</t>
   </si>
   <si>
@@ -56,28 +58,40 @@
     <t>Need to meed for implementing Apigee</t>
   </si>
   <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Need to discuss on expression based authorization in Spring</t>
+  </si>
+  <si>
+    <t>Change Sets</t>
+  </si>
+  <si>
+    <t>Read, Object locking</t>
+  </si>
+  <si>
+    <t>Content Space</t>
+  </si>
+  <si>
+    <t>Search, Create, Update &amp; Delete</t>
+  </si>
+  <si>
     <t>Dynamic Content</t>
   </si>
   <si>
-    <t>Authorization</t>
-  </si>
-  <si>
-    <t>Need to discuss on expression based authorization in Spring</t>
-  </si>
-  <si>
-    <t>Content Space</t>
-  </si>
-  <si>
     <t>Dynamic Content Delivery</t>
   </si>
   <si>
     <t>Content Space Preview</t>
   </si>
   <si>
+    <t>Dynamic content rendering from EP Engine</t>
+  </si>
+  <si>
     <t>Saved Conditions</t>
   </si>
   <si>
-    <t>Change Sets</t>
+    <t>Search, Create</t>
   </si>
   <si>
     <t>Override EP Tags</t>
@@ -86,25 +100,25 @@
     <t>Data Sync DB flag setting</t>
   </si>
   <si>
+    <t>update TCHANGESET table to mark change set as 'ready to push'</t>
+  </si>
+  <si>
     <t>Object ReIndex</t>
   </si>
   <si>
     <t>update UINDEXNOTIFY table</t>
   </si>
   <si>
-    <t>update TCHANGESET table to mark change set as 'ready to push'</t>
-  </si>
-  <si>
-    <t>Read, Object locking</t>
-  </si>
-  <si>
-    <t>Search, Create, Update &amp; Delete</t>
-  </si>
-  <si>
-    <t>Search, Create</t>
-  </si>
-  <si>
-    <t>Dynamic content rendering from EP Engine</t>
+    <t>Phase 1 Objectives</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Component/Feature Required</t>
+  </si>
+  <si>
+    <t>Overview of Task</t>
   </si>
   <si>
     <t>Setup Info</t>
@@ -113,39 +127,544 @@
     <t>Maven Frontend Goal</t>
   </si>
   <si>
-    <t>Page 1</t>
-  </si>
-  <si>
-    <t>All pages</t>
+    <t>Determine missing dependencies (Frameworks, external components)</t>
+  </si>
+  <si>
+    <t>Retrieve missing dependencies with Bower</t>
+  </si>
+  <si>
+    <t>Move dependencies to the web path (CSS and JS files)</t>
+  </si>
+  <si>
+    <t>Determine freshness of CSS files</t>
+  </si>
+  <si>
+    <t>Main CSS is compiled with Less and includes Bootstrap 3 from source</t>
+  </si>
+  <si>
+    <t>Angular Scaffolding</t>
+  </si>
+  <si>
+    <t>Initial bootstrapping JSP page for single page app</t>
+  </si>
+  <si>
+    <t>Lazy loading modules with services on demand</t>
+  </si>
+  <si>
+    <t>Lazy loading modules with directives on demand</t>
+  </si>
+  <si>
+    <t>Create "view" system which is a page partial generated from JSP</t>
+  </si>
+  <si>
+    <t>Roles Service</t>
+  </si>
+  <si>
+    <t>getLoginStatus</t>
+  </si>
+  <si>
+    <t>Verifies current authorization token and returns if the user is logged in or not.</t>
+  </si>
+  <si>
+    <t>attemptLogin</t>
+  </si>
+  <si>
+    <t>Performs a user login.  Generates authorization token that is stored in session cookie.</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>View - Login</t>
+  </si>
+  <si>
+    <t>Create JSP that displays the HTML output for this partial</t>
+  </si>
+  <si>
+    <t>Create controller that will interact with user and NG service (missing required fields, display errors, etc)</t>
+  </si>
+  <si>
+    <t>Dynamic Content Service</t>
+  </si>
+  <si>
+    <t>Angular Service</t>
+  </si>
+  <si>
+    <t>Service wires into web API to: Create DC; Update DC; retrieve DC; Delete DC</t>
+  </si>
+  <si>
+    <t>View - DC</t>
+  </si>
+  <si>
+    <t>Controller that loads paginated amount of content into DC directive</t>
+  </si>
+  <si>
+    <t>Search/filter panel</t>
+  </si>
+  <si>
+    <t>Directive - DC</t>
+  </si>
+  <si>
+    <t>directive will handle picture, name, status, container, size as well as display control buttons depending on the set state of DC</t>
+  </si>
+  <si>
+    <t>View - DC Edit Main</t>
+  </si>
+  <si>
+    <t>Controller that handles new/editing Dynamic Content</t>
+  </si>
+  <si>
+    <t>View - DC Edit Attributes</t>
+  </si>
+  <si>
+    <t>List a set of attributes that provide a means of clearing or editing values.  List can be filtered by language.</t>
+  </si>
+  <si>
+    <t>Modal - Attribute Editor</t>
+  </si>
+  <si>
+    <t>Modal value editor.  Different views based off of value type.</t>
+  </si>
+  <si>
+    <t>Save Condition Service</t>
+  </si>
+  <si>
+    <t>Wiring for Create Condition; Update Condition; Retrieve Condition; Delete Condition</t>
+  </si>
+  <si>
+    <t>Save Condition</t>
+  </si>
+  <si>
+    <t>View - Saved Condition</t>
+  </si>
+  <si>
+    <t>List conditions and give the user the ability to create new, edit or delete a saved condition.</t>
+  </si>
+  <si>
+    <t>View - Saved Condition Editor Summary</t>
+  </si>
+  <si>
+    <t>Specify Name and Description</t>
+  </si>
+  <si>
+    <t>Directive - Condition Field</t>
+  </si>
+  <si>
+    <t>Add/Delete Condition type; Condition operator; Condition value  condition statement with logical AND/OR between statements</t>
+  </si>
+  <si>
+    <t>Add/Delete Condition blocks with logical AND/OR between blocks</t>
+  </si>
+  <si>
+    <t>View - Save Condition Builder</t>
+  </si>
+  <si>
+    <t>Allows user to create or edit a saved condition by using the Condition field directive, start and end date picker and specify a store using a dual listbox.</t>
+  </si>
+  <si>
+    <t>DC Delivery Service</t>
+  </si>
+  <si>
+    <t>Service wires into web API to be able to: Create DCD; Update DCD; retrieve DCD; Delete DCD</t>
+  </si>
+  <si>
+    <t>View - DCD</t>
+  </si>
+  <si>
+    <t>Displays DCD directives paginated</t>
+  </si>
+  <si>
+    <t>search/filter panel</t>
+  </si>
+  <si>
+    <t>Directive - DCD</t>
+  </si>
+  <si>
+    <t>Directive will display DC picture; DC Name; Change Set Name; Priority; Time Condition; Shopper Condition; Store Condition;  Change Set status and control buttons depending on DCD state</t>
+  </si>
+  <si>
+    <t>View - DCD Edit Summary</t>
+  </si>
+  <si>
+    <t>Create/Edit DCD: Edit Name; Description and set priority</t>
+  </si>
+  <si>
+    <t>View - DCD Edit DC</t>
+  </si>
+  <si>
+    <t>Create/Edit DCD: List and select the DC.  Filters for Name; Description; Content Wrapper; Container Type</t>
+  </si>
+  <si>
+    <t>View - DCD Edit CS</t>
+  </si>
+  <si>
+    <t>Create/Edit DCD:  List of available content spaces with a name filter as well as a current assigned listbox in dual listbox fashion.</t>
+  </si>
+  <si>
+    <t>View - DCD Edit Shopper</t>
+  </si>
+  <si>
+    <t>User sets the condition via Radio Button:  All Shoppers; Saved Condition; Create a Condition</t>
+  </si>
+  <si>
+    <t>EP Overrides</t>
+  </si>
+  <si>
+    <t>Set and clear tag values</t>
+  </si>
+  <si>
+    <t>View - EP Tags</t>
+  </si>
+  <si>
+    <t>Display a list of possible EP tags</t>
+  </si>
+  <si>
+    <t>Content Space Service</t>
+  </si>
+  <si>
+    <t>Wiring to talk to web API to Create CS; Update CS; Retrieve CS; Delete CS</t>
+  </si>
+  <si>
+    <t>Directive - Content Space</t>
+  </si>
+  <si>
+    <t>Displays DC based on DCD rules and current EP overrides.  Displays name; description; change set assigned to.   Has edit and delete control buttons depending on the state of CS.</t>
+  </si>
+  <si>
+    <t>View - Content Space</t>
+  </si>
+  <si>
+    <t>Provides filter/search panel.  Lists CS Directive paginated.  Gives the user the ability to create new CS. Goto EP tag editor.</t>
+  </si>
+  <si>
+    <t>Modal - CS Editor</t>
+  </si>
+  <si>
+    <t>Allows user to create or edit a Content Space</t>
+  </si>
+  <si>
+    <t>Directive - DCD Viewer</t>
+  </si>
+  <si>
+    <t>Displays the name; priority; assigned CSN; DC Name; type; status; container type; shoper condition; time condition and store condition</t>
+  </si>
+  <si>
+    <t>View - Content Space Full View</t>
+  </si>
+  <si>
+    <t>Displays content that was choosen by the DCD logic</t>
+  </si>
+  <si>
+    <t>Settings Service</t>
+  </si>
+  <si>
+    <t>Wires to API to Update Settings; Retrieve Settings</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>View - Settings</t>
+  </si>
+  <si>
+    <t>Has a selectable pull down for which store to view settings.  Provides a list of settings available for the selected store that the user can edit values</t>
+  </si>
+  <si>
+    <t>Editor for value based on what is the set type.   Most likely already be written by "Dynamic Content: Modal - Attribute Editor"</t>
+  </si>
+  <si>
+    <t>Maven/Spring project</t>
+  </si>
+  <si>
+    <t>Create Maven/Spring Project</t>
+  </si>
+  <si>
+    <t>Create StaticContent Class for URL path /</t>
+  </si>
+  <si>
+    <t>Create Views Class for URL path /views</t>
+  </si>
+  <si>
+    <t>Create WebAPI Class for URL path /api</t>
+  </si>
+  <si>
+    <t>Basic interface into EP and Shutterfly services</t>
+  </si>
+  <si>
+    <t>WebAPI</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>POST:  /api/role/attempt-login</t>
+  </si>
+  <si>
+    <t>GET: /api/role/status/{token ID}</t>
+  </si>
+  <si>
+    <t>Implement DC services from EP</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dc/create</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dc/retrieve</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dc/update</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dc/delete</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dc/search</t>
+  </si>
+  <si>
+    <t>Implement Save Condition service from EP</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/save/create</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/save/retrieve</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/save/update</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/save/delete</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/save/search</t>
+  </si>
+  <si>
+    <t>Implement DCD service from EP</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dcd/create</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dcd/retrieve</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dcd/update</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dcd/delete</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/dcd/search</t>
+  </si>
+  <si>
+    <t>Implement EP Override service from EP</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/override/create</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/override/retrieve</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/override/update</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/override/delete</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/override/search</t>
+  </si>
+  <si>
+    <t>Implement CS service from EP</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/cs/create</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/cs/retrieve</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/cs/update</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/cs/delete</t>
+  </si>
+  <si>
+    <t>Create endpoint POST: /api/cs/search</t>
+  </si>
+  <si>
+    <t>Implement Settings service from EP</t>
+  </si>
+  <si>
+    <t>Local Path</t>
+  </si>
+  <si>
+    <t>URL Location</t>
+  </si>
+  <si>
+    <t>Backend Controller Class Name</t>
+  </si>
+  <si>
+    <t>/views/index.jsp</t>
+  </si>
+  <si>
+    <t>/ or /views/index.jsp</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>/views</t>
+  </si>
+  <si>
+    <t>/api</t>
+  </si>
+  <si>
+    <t>/static/css</t>
+  </si>
+  <si>
+    <t>/css</t>
+  </si>
+  <si>
+    <t>StaticContent</t>
+  </si>
+  <si>
+    <t>/static/js</t>
+  </si>
+  <si>
+    <t>/js</t>
+  </si>
+  <si>
+    <t>/static/directives</t>
+  </si>
+  <si>
+    <t>/directives</t>
+  </si>
+  <si>
+    <t>/static/images</t>
+  </si>
+  <si>
+    <t>/images</t>
+  </si>
+  <si>
+    <t>/static/services</t>
+  </si>
+  <si>
+    <t>/services</t>
+  </si>
+  <si>
+    <t>Validate user permission for this action</t>
+  </si>
+  <si>
+    <t>Read Change set for the user and keep it in cache/session</t>
+  </si>
+  <si>
+    <t>Disable create/delete options when CS is not selected</t>
+  </si>
+  <si>
+    <t>Keep track of any changes into selected Change set</t>
+  </si>
+  <si>
+    <t>Controller to handle DC actions</t>
+  </si>
+  <si>
+    <t>Create Dynamic content</t>
+  </si>
+  <si>
+    <t>Edit Dynamic content</t>
+  </si>
+  <si>
+    <t>Delete Dynamic content</t>
+  </si>
+  <si>
+    <t>Read/ search content space to be attached to the Dynamic content</t>
+  </si>
+  <si>
+    <t>Add the changed object into selected Change set</t>
+  </si>
+  <si>
+    <t>Conent Space</t>
+  </si>
+  <si>
+    <t>Controller to handle Content Space actions</t>
+  </si>
+  <si>
+    <t>Disable create/delete options when Change Set is not selected</t>
+  </si>
+  <si>
+    <t>Read Content space</t>
+  </si>
+  <si>
+    <t>com.shutterfly.ep.service.contentspace.impl.SflyDynamicContentServiceImpl</t>
+  </si>
+  <si>
+    <t>extension.core</t>
+  </si>
+  <si>
+    <t>Create Content space</t>
+  </si>
+  <si>
+    <t>Edit Content space</t>
+  </si>
+  <si>
+    <t>Delete Content space</t>
+  </si>
+  <si>
+    <t>Preview the dynamic content by evaluating override EP tag value</t>
+  </si>
+  <si>
+    <t>Controller to handle DCD actions</t>
+  </si>
+  <si>
+    <t>Create Dynamic content Delivery</t>
+  </si>
+  <si>
+    <t>Edit Dynamic content Delivery</t>
+  </si>
+  <si>
+    <t>Delete Dynamic content Delivery</t>
+  </si>
+  <si>
+    <t>Use saved condition routine</t>
+  </si>
+  <si>
+    <t>Read/ search for dynamic contents to be attached to the DCD</t>
+  </si>
+  <si>
+    <t>Read the tags from DB and display</t>
+  </si>
+  <si>
+    <t>Save the changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +675,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -179,65 +698,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -568,11 +1120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
@@ -581,162 +1133,162 @@
     <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:7" ht="15" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -750,26 +1302,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -783,24 +1667,818 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>29</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1">
+      <c r="B24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1">
+      <c r="B25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="B26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="B27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1">
+      <c r="B31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1">
+      <c r="B32" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1">
+      <c r="C33" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1">
+      <c r="B34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1">
+      <c r="B40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1">
+      <c r="B41" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1">
+      <c r="B42" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1">
+      <c r="B43" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1">
+      <c r="B44" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1">
+      <c r="B47" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1">
+      <c r="B52" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1">
+      <c r="B53" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1">
+      <c r="B54" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1">
+      <c r="B55" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1">
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1">
+      <c r="B60" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1">
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1">
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15" customHeight="1">
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15" customHeight="1">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15" customHeight="1">
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15" customHeight="1">
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15" customHeight="1">
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" customHeight="1">
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" customHeight="1">
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15" customHeight="1">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15" customHeight="1">
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" customHeight="1">
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15" customHeight="1">
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15" customHeight="1">
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15" customHeight="1">
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15" customHeight="1">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15" customHeight="1">
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15" customHeight="1">
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15" customHeight="1">
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15" customHeight="1">
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15" customHeight="1">
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15" customHeight="1">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15" customHeight="1">
+      <c r="C41" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15" customHeight="1">
+      <c r="C42" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15" customHeight="1">
+      <c r="C43" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15" customHeight="1">
+      <c r="C44" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15" customHeight="1">
+      <c r="C45" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15" customHeight="1">
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15" customHeight="1">
+      <c r="C48" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="15" customHeight="1">
+      <c r="C49" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" ht="15" customHeight="1">
+      <c r="C50" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
